--- a/groups.xlsx
+++ b/groups.xlsx
@@ -18,25 +18,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>V6</t>
-  </si>
-  <si>
-    <t>3c qdm</t>
-  </si>
-  <si>
-    <t>5oLsb98o</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YehAW</t>
-  </si>
-  <si>
-    <t>y ZOo</t>
-  </si>
-  <si>
-    <t>CYK zeC2</t>
-  </si>
-  <si>
-    <t>7cZmjF 8U</t>
+    <t>kHqC</t>
+  </si>
+  <si>
+    <t>ikwej Bh</t>
+  </si>
+  <si>
+    <t>jcUgNbIm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  lMIa</t>
+  </si>
+  <si>
+    <t>wfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
